--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1282443.69276291</v>
+        <v>1227491.803478814</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013168</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>257.9469916434289</v>
       </c>
       <c r="E11" t="n">
-        <v>92.48386499545872</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>3.329915919761908</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>30.7647989880005</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>52.42857711587127</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>145.2490382381322</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>220.2533451494453</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>24.92366888427786</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.99132866338535</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>8.916258666856967</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.5201282494384</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>240.4660086744117</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>238.6132096784045</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>114.4430778334022</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>75.79775182511723</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>118.2964226714636</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.1434003800102</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>8.916258666857143</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>32.94802050878639</v>
       </c>
       <c r="I20" t="n">
         <v>185.5090622027478</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.74428294669838</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>10.88246967968655</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>109.7969997889536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>13.42805983116387</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.61813689207872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>189.9911844054675</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>29.10242891642871</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2405,19 +2405,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>74.13849694243468</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
@@ -2453,7 +2453,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>74.24786385596778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>77.52012824943834</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13.72390842408618</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>72.02503710087029</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>4.540021275640758</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -2648,13 +2648,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>51.1878896324294</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>52.42857711587133</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>84.9723087554473</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>211.6796245054357</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>174.938240774449</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>68.67973849569115</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.226885210985937</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>52.42857711587135</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>15.26285174862734</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>33.07069600272463</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>20.07184598796495</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -3128,7 +3128,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>16.64783399597547</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.35340349906471</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>284.4096984818322</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>159.4587684390287</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>130.2646119085758</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>143.5732592251943</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>7.226885210985951</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>93.79237894219307</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>96.40070725839092</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>90.22595344863045</v>
       </c>
       <c r="D39" t="n">
-        <v>38.78787682753403</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.1044229849743</v>
+        <v>152.3549420496105</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>87.63319326612954</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>115.8029335946726</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.5757582743148</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>103.1100538602886</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.35340349906471</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>123.1434003800102</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>210.5518240523786</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>47.49492036792901</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>154.124379966367</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>45.03135557575531</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.1044229849742</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>8.916258666857122</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.548593210149</v>
+        <v>1005.73269179391</v>
       </c>
       <c r="C11" t="n">
-        <v>1413.548593210149</v>
+        <v>1005.73269179391</v>
       </c>
       <c r="D11" t="n">
-        <v>1072.364593571536</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="E11" t="n">
-        <v>978.9465481215775</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M11" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157783</v>
@@ -5059,7 +5059,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5068,25 +5068,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="W11" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="X11" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="Y11" t="n">
-        <v>1413.548593210149</v>
+        <v>1005.73269179391</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>949.6270488192655</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="C12" t="n">
-        <v>760.2147745522292</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D12" t="n">
-        <v>599.4346583132609</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E12" t="n">
-        <v>425.8714544346753</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F12" t="n">
-        <v>265.4437381519194</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
@@ -5123,13 +5123,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>317.2197849098233</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207058</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N12" t="n">
         <v>1082.820066520717</v>
@@ -5147,25 +5147,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1627.958867440573</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U12" t="n">
-        <v>1627.958867440573</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V12" t="n">
-        <v>1384.879149344207</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W12" t="n">
-        <v>1384.879149344207</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X12" t="n">
-        <v>1353.803594810873</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.162901746201</v>
+        <v>37.6782042885481</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651434</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651434</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651434</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729.2415791407141</v>
+        <v>588.3028224283297</v>
       </c>
       <c r="C14" t="n">
-        <v>375.4986524930586</v>
+        <v>588.3028224283297</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F14" t="n">
         <v>34.31465285444516</v>
@@ -5278,22 +5278,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M14" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P14" t="n">
         <v>1650.639799716936</v>
@@ -5320,10 +5320,10 @@
         <v>1715.732642722258</v>
       </c>
       <c r="X14" t="n">
-        <v>1493.254516308677</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.107478512263</v>
+        <v>966.1687217998785</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.5262490036889</v>
+        <v>530.1669420683617</v>
       </c>
       <c r="C15" t="n">
-        <v>115.1139747366526</v>
+        <v>504.9915189529295</v>
       </c>
       <c r="D15" t="n">
-        <v>115.1139747366526</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="E15" t="n">
-        <v>115.1139747366526</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F15" t="n">
-        <v>115.1139747366526</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G15" t="n">
-        <v>115.1139747366526</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>115.1139747366526</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>54.4093011102587</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L15" t="n">
-        <v>337.314433165637</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M15" t="n">
-        <v>712.2060427186985</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N15" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
@@ -5387,22 +5387,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1501.726349490192</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U15" t="n">
-        <v>1262.153223817739</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V15" t="n">
         <v>1019.073505721374</v>
       </c>
       <c r="W15" t="n">
-        <v>749.6749364516648</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X15" t="n">
-        <v>530.1669420683612</v>
+        <v>530.1669420683617</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.5262490036889</v>
+        <v>530.1669420683617</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="C16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="D16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="E16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="F16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="X16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015927</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>277.2096111114267</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="C17" t="n">
-        <v>277.2096111114267</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="D17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
         <v>34.31465285444516</v>
@@ -5515,25 +5515,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5542,25 +5542,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1195.201146295158</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U17" t="n">
-        <v>942.6401640759913</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="V17" t="n">
-        <v>618.5191705313932</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="W17" t="n">
-        <v>277.2096111114267</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="X17" t="n">
-        <v>277.2096111114267</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="Y17" t="n">
-        <v>277.2096111114267</v>
+        <v>1150.856285470723</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>995.3051791025987</v>
+        <v>822.6495330776379</v>
       </c>
       <c r="C18" t="n">
-        <v>879.7061105840106</v>
+        <v>633.2372588106016</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9259943450423</v>
+        <v>472.4571425716333</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3627904664568</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G18" t="n">
         <v>235.4660406069408</v>
@@ -5594,16 +5594,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K18" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029031</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N18" t="n">
         <v>1173.359244302914</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025987</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V18" t="n">
-        <v>995.3051791025987</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W18" t="n">
-        <v>995.3051791025987</v>
+        <v>1446.334073452549</v>
       </c>
       <c r="X18" t="n">
-        <v>995.3051791025987</v>
+        <v>1226.826079069245</v>
       </c>
       <c r="Y18" t="n">
-        <v>995.3051791025987</v>
+        <v>1001.185386004573</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5697,28 +5697,28 @@
         <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U19" t="n">
-        <v>158.7019259655666</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7019259655666</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W19" t="n">
-        <v>158.7019259655666</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X19" t="n">
-        <v>158.7019259655666</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.7019259655666</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>916.6244702546006</v>
+        <v>630.2095970697687</v>
       </c>
       <c r="C20" t="n">
-        <v>562.8815436069452</v>
+        <v>630.2095970697687</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6975439683318</v>
+        <v>630.2095970697687</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6975439683318</v>
+        <v>254.9783727650857</v>
       </c>
       <c r="F20" t="n">
-        <v>221.6975439683318</v>
+        <v>254.9783727650857</v>
       </c>
       <c r="G20" t="n">
-        <v>221.6975439683318</v>
+        <v>254.9783727650857</v>
       </c>
       <c r="H20" t="n">
         <v>221.6975439683318</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389727</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292789</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T20" t="n">
-        <v>1680.637407422563</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U20" t="n">
-        <v>1680.637407422563</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V20" t="n">
-        <v>1680.637407422563</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="W20" t="n">
-        <v>1680.637407422563</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="X20" t="n">
-        <v>1680.637407422563</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="Y20" t="n">
-        <v>1294.490369626149</v>
+        <v>630.2095970697687</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>115.9747045751594</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M21" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N21" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O21" t="n">
         <v>1395.953100567611</v>
@@ -5852,28 +5852,28 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T21" t="n">
-        <v>1627.958867440573</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U21" t="n">
-        <v>1627.958867440573</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="V21" t="n">
-        <v>1627.958867440573</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="W21" t="n">
-        <v>1358.560298170864</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="X21" t="n">
-        <v>1358.560298170864</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="Y21" t="n">
         <v>1247.654237777982</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.189620196682</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.189620196682</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196682</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196682</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722259</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722259</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="W22" t="n">
-        <v>1715.732642722259</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="X22" t="n">
-        <v>1491.571576653327</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.189620196682</v>
+        <v>321.2939785808668</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>942.6401640759917</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C23" t="n">
-        <v>942.6401640759917</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D23" t="n">
-        <v>601.4561644373782</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E23" t="n">
-        <v>226.2249401326952</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F23" t="n">
-        <v>226.2249401326952</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G23" t="n">
-        <v>226.2249401326952</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.2644088760301</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292781</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.54859321015</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759917</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="V23" t="n">
-        <v>942.6401640759917</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="W23" t="n">
-        <v>942.6401640759917</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="X23" t="n">
-        <v>942.6401640759917</v>
+        <v>1580.830783660438</v>
       </c>
       <c r="Y23" t="n">
-        <v>942.6401640759917</v>
+        <v>1194.683745864024</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.5070433604497</v>
+        <v>1069.118384851047</v>
       </c>
       <c r="C24" t="n">
-        <v>195.0947690934134</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444518</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31465285444518</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31465285444518</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444518</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>478.3196054885461</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M24" t="n">
-        <v>770.1254798029036</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N24" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1640.845272073335</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1461.771002639879</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1247.764709407814</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>1008.191583735361</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="V24" t="n">
-        <v>1008.191583735361</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="W24" t="n">
-        <v>1008.191583735361</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="X24" t="n">
-        <v>788.6835893520572</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="Y24" t="n">
-        <v>563.0428962873848</v>
+        <v>1247.654237777982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6180,19 +6180,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H26" t="n">
-        <v>48.17718661614839</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I26" t="n">
         <v>34.31465285444518</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722259</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U26" t="n">
-        <v>1463.171660503093</v>
+        <v>1122.448583567006</v>
       </c>
       <c r="V26" t="n">
-        <v>1139.050666958495</v>
+        <v>798.327590022408</v>
       </c>
       <c r="W26" t="n">
-        <v>797.7411075385282</v>
+        <v>798.327590022408</v>
       </c>
       <c r="X26" t="n">
-        <v>434.3242244125624</v>
+        <v>798.327590022408</v>
       </c>
       <c r="Y26" t="n">
-        <v>48.17718661614839</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>770.2029025444472</v>
+        <v>788.8469325802972</v>
       </c>
       <c r="C27" t="n">
-        <v>580.7906282774109</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="D27" t="n">
-        <v>420.0105120384426</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E27" t="n">
-        <v>246.447308159857</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F27" t="n">
-        <v>86.01959187710113</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444518</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722259</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T27" t="n">
-        <v>1413.952574208508</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U27" t="n">
-        <v>1174.379448536055</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V27" t="n">
-        <v>1174.379448536055</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W27" t="n">
-        <v>1174.379448536055</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="X27" t="n">
-        <v>1174.379448536055</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="Y27" t="n">
-        <v>948.7387554713823</v>
+        <v>793.432812656702</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.732642722259</v>
+        <v>281.8995166771219</v>
       </c>
       <c r="V28" t="n">
-        <v>1468.147778899582</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.0575795021006</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="C29" t="n">
-        <v>34.31465285444518</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="D29" t="n">
-        <v>34.31465285444518</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="E29" t="n">
-        <v>34.31465285444518</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="F29" t="n">
-        <v>34.31465285444518</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444518</v>
@@ -6490,25 +6490,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1524.396561600823</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T29" t="n">
-        <v>1306.049114685831</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U29" t="n">
-        <v>1053.488132466665</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V29" t="n">
-        <v>729.3671389220672</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W29" t="n">
-        <v>388.0575795021006</v>
+        <v>1396.409373974572</v>
       </c>
       <c r="X29" t="n">
-        <v>388.0575795021006</v>
+        <v>1396.409373974572</v>
       </c>
       <c r="Y29" t="n">
-        <v>388.0575795021006</v>
+        <v>1396.409373974572</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>827.0306168475769</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>637.6183425805406</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444518</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444518</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H30" t="n">
         <v>34.31465285444518</v>
@@ -6572,22 +6572,22 @@
         <v>1448.884598007118</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="U30" t="n">
-        <v>1165.504831547081</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="V30" t="n">
-        <v>922.4251134507153</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="W30" t="n">
-        <v>653.0265441810067</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="X30" t="n">
-        <v>433.518549797703</v>
+        <v>1229.376603623814</v>
       </c>
       <c r="Y30" t="n">
-        <v>207.8778567330307</v>
+        <v>1003.735910559142</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="G31" t="n">
         <v>34.31465285444518</v>
@@ -6657,16 +6657,16 @@
         <v>334.8576753800222</v>
       </c>
       <c r="V31" t="n">
-        <v>87.27281155734553</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594612</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.6975439683318</v>
+        <v>1232.361277133767</v>
       </c>
       <c r="C32" t="n">
-        <v>221.6975439683318</v>
+        <v>878.6183504861112</v>
       </c>
       <c r="D32" t="n">
-        <v>221.6975439683318</v>
+        <v>878.6183504861112</v>
       </c>
       <c r="E32" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F32" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
@@ -6727,25 +6727,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759913</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313932</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W32" t="n">
-        <v>585.1144270942976</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X32" t="n">
-        <v>221.6975439683318</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.6975439683318</v>
+        <v>1610.227176505315</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1004.274327065662</v>
+        <v>565.6373823734921</v>
       </c>
       <c r="C33" t="n">
-        <v>814.8620527986252</v>
+        <v>565.6373823734921</v>
       </c>
       <c r="D33" t="n">
-        <v>654.0819365596569</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E33" t="n">
-        <v>480.5187326810714</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F33" t="n">
-        <v>320.0910163983154</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G33" t="n">
-        <v>170.6219828215553</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H33" t="n">
-        <v>51.13064678977392</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I33" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>770.1254798029031</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N33" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P33" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U33" t="n">
-        <v>1627.958867440573</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V33" t="n">
-        <v>1627.958867440573</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W33" t="n">
-        <v>1627.958867440573</v>
+        <v>963.6812296837307</v>
       </c>
       <c r="X33" t="n">
-        <v>1408.450873057269</v>
+        <v>744.1732353004271</v>
       </c>
       <c r="Y33" t="n">
-        <v>1182.810179992597</v>
+        <v>744.1732353004271</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
         <v>34.31465285444516</v>
@@ -6885,25 +6885,25 @@
         <v>334.8576753800222</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4089998231974</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4089998231974</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1337.86674335071</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="C35" t="n">
-        <v>1337.86674335071</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.86674335071</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="E35" t="n">
-        <v>1337.86674335071</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="F35" t="n">
-        <v>930.5947740173629</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="G35" t="n">
-        <v>508.9800676873542</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>195.3841159241712</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193754</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722259</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722259</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.732642722259</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.732642722259</v>
+        <v>959.397053092134</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.732642722259</v>
+        <v>959.397053092134</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.732642722259</v>
+        <v>573.25001529572</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4583331303328</v>
+        <v>339.4582728022992</v>
       </c>
       <c r="C36" t="n">
-        <v>798.0460588632965</v>
+        <v>339.4582728022992</v>
       </c>
       <c r="D36" t="n">
-        <v>637.2659426243282</v>
+        <v>339.4582728022992</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>165.8950689237136</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>165.8950689237136</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
         <v>195.4144734331679</v>
@@ -7028,19 +7028,19 @@
         <v>853.2112150416077</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
         <v>1536.658373288803</v>
@@ -7049,19 +7049,19 @@
         <v>1536.658373288803</v>
       </c>
       <c r="U36" t="n">
-        <v>1536.658373288803</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V36" t="n">
-        <v>1536.658373288803</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W36" t="n">
-        <v>1536.658373288803</v>
+        <v>784.6069602502752</v>
       </c>
       <c r="X36" t="n">
-        <v>1391.63487912194</v>
+        <v>565.0989658669715</v>
       </c>
       <c r="Y36" t="n">
-        <v>1165.994186057268</v>
+        <v>339.4582728022992</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W37" t="n">
-        <v>1422.489504248183</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594612</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>860.663255582936</v>
+        <v>482.7973562113865</v>
       </c>
       <c r="C38" t="n">
-        <v>506.9203289352806</v>
+        <v>129.0544295637311</v>
       </c>
       <c r="D38" t="n">
-        <v>506.9203289352806</v>
+        <v>129.0544295637311</v>
       </c>
       <c r="E38" t="n">
-        <v>131.6891046305976</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F38" t="n">
-        <v>131.6891046305976</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G38" t="n">
-        <v>131.6891046305976</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>131.6891046305976</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
         <v>525.528369138972</v>
@@ -7189,37 +7189,37 @@
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W38" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X38" t="n">
-        <v>1246.81029337935</v>
+        <v>1246.810293379349</v>
       </c>
       <c r="Y38" t="n">
-        <v>860.663255582936</v>
+        <v>860.6632555829353</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>758.105667908208</v>
+        <v>125.4519795702335</v>
       </c>
       <c r="C39" t="n">
-        <v>758.105667908208</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889815</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M39" t="n">
-        <v>770.1254798029036</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.359244302915</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349809</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722259</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722259</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722259</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.732642722259</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V39" t="n">
-        <v>1472.652924625893</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W39" t="n">
-        <v>1203.254355356184</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="X39" t="n">
-        <v>983.7463609728804</v>
+        <v>351.0926726349059</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.105667908208</v>
+        <v>125.4519795702335</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D40" t="n">
-        <v>1715.732642722259</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="E40" t="n">
-        <v>1715.732642722259</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="F40" t="n">
-        <v>1715.732642722259</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="G40" t="n">
-        <v>1715.732642722259</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.091811424305</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>729.2415791407141</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C41" t="n">
-        <v>375.4986524930586</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193751</v>
@@ -7420,7 +7420,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292781</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7432,31 +7432,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505316</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505316</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505316</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="U41" t="n">
-        <v>1610.227176505316</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V41" t="n">
-        <v>1493.254516308677</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W41" t="n">
-        <v>1493.254516308677</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X41" t="n">
-        <v>1493.254516308677</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y41" t="n">
-        <v>1107.107478512263</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.2114027139612</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C42" t="n">
-        <v>344.2114027139612</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D42" t="n">
-        <v>344.2114027139612</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E42" t="n">
-        <v>344.2114027139612</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F42" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944637</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L42" t="n">
-        <v>395.233870249842</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029036</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302915</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349809</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U42" t="n">
-        <v>1301.838377528012</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V42" t="n">
-        <v>1058.758659431646</v>
+        <v>1611.581073166411</v>
       </c>
       <c r="W42" t="n">
-        <v>789.3600901619373</v>
+        <v>1342.182503896702</v>
       </c>
       <c r="X42" t="n">
-        <v>569.8520957786336</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y42" t="n">
-        <v>344.2114027139612</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306433</v>
@@ -7593,28 +7593,28 @@
         <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>260.76332841127</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="S43" t="n">
-        <v>34.31465285444518</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="T43" t="n">
-        <v>34.31465285444518</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="U43" t="n">
-        <v>34.31465285444518</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="V43" t="n">
-        <v>34.31465285444518</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="W43" t="n">
-        <v>34.31465285444518</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="X43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1246.81029337935</v>
+        <v>246.993263008363</v>
       </c>
       <c r="C44" t="n">
-        <v>1246.81029337935</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D44" t="n">
-        <v>1246.81029337935</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E44" t="n">
-        <v>1246.81029337935</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F44" t="n">
-        <v>839.538324046003</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>417.9236177159944</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>82.28931989275731</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887603033</v>
+        <v>79.26440887602965</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W44" t="n">
-        <v>1610.227176505316</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X44" t="n">
-        <v>1246.81029337935</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="Y44" t="n">
-        <v>1246.81029337935</v>
+        <v>624.8591623799118</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>800.1580152425054</v>
+        <v>189.9958447396643</v>
       </c>
       <c r="C45" t="n">
-        <v>610.7457409754691</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D45" t="n">
-        <v>449.9656247365008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E45" t="n">
-        <v>276.4024208579153</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L45" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M45" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
         <v>1536.658373288803</v>
       </c>
       <c r="T45" t="n">
-        <v>1536.658373288803</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U45" t="n">
-        <v>1536.658373288803</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.578655192437</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="W45" t="n">
-        <v>1024.180085922729</v>
+        <v>813.6803851145754</v>
       </c>
       <c r="X45" t="n">
-        <v>978.6938681694405</v>
+        <v>594.1723907312718</v>
       </c>
       <c r="Y45" t="n">
-        <v>978.6938681694405</v>
+        <v>368.5316976665994</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444518</v>
+        <v>181.2168440820684</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306433</v>
@@ -7839,19 +7839,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>43.32097474015944</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>43.32097474015944</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>289.1252727825464</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535095</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9005,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K15" t="n">
-        <v>8.646382090491642</v>
+        <v>87.44848849455063</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1808494245541</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,16 +9242,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662187</v>
       </c>
       <c r="M18" t="n">
-        <v>217.8518962203993</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9488,13 +9488,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888864</v>
       </c>
       <c r="N21" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
-        <v>59.54645836938607</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9725,10 +9725,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>217.8518962203998</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>206.3912489842008</v>
+        <v>135.2351585535096</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>61.40936639976317</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455079</v>
+        <v>87.44848849455077</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10427,16 +10427,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372856</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888864</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>226.6888734850225</v>
+        <v>135.2351585535091</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10837,7 +10837,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.7585174582593</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10901,16 +10901,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>197.554271719578</v>
+        <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
         <v>310.6138585746227</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131754</v>
+        <v>123.4784739253759</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11071,7 +11071,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189656</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>67.15086399372902</v>
+        <v>87.44848849454985</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315043</v>
+        <v>109.5746066315036</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11378,7 +11378,7 @@
         <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454985</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11393,10 +11393,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>30.98517405756632</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23263,22 +23263,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>79.82516799879835</v>
       </c>
       <c r="E11" t="n">
-        <v>278.9950470661774</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>184.188235604604</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>186.5481154514701</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258738</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>224.1841888012565</v>
+        <v>171.7556116853853</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>192.5231214040951</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
@@ -23560,7 +23560,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>139.5293691452609</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23576,25 +23576,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>162.5944826400881</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8521225401216981</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>130.0106235515897</v>
       </c>
       <c r="G16" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>82.56286578368633</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23709,7 +23709,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23734,10 +23734,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>97.3061509678156</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23746,7 +23746,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>99.28325414736238</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>73.07507369096373</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>96.02982001468244</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.47352028495791</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23937,7 +23937,7 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
         <v>224.1841888012565</v>
@@ -23946,10 +23946,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="W19" t="n">
         <v>290.3107070893353</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
@@ -23986,7 +23986,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>299.3299343362183</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>181.4196894991434</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>255.822113897325</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>113.587286345072</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24132,13 +24132,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>168.0550137836253</v>
@@ -24183,7 +24183,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>275.1932738023003</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24192,10 +24192,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.5231359220897</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>142.2867704395371</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>187.061543529413</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24293,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.75754058643415</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>162.9295305597607</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24350,10 +24350,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24381,13 +24381,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
-        <v>82.56286578368639</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="W25" t="n">
         <v>290.3107070893353</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24463,7 +24463,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>171.7851537786616</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>178.0103352961042</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>172.210473122025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>96.78645360856308</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -24657,13 +24657,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>237.8821299734639</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.7394887067673</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>126.2168393203312</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>1.812253623216748</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>80.84345120350704</v>
@@ -24812,16 +24812,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>168.4976559200373</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726393</v>
       </c>
       <c r="H31" t="n">
         <v>160.0829940331247</v>
@@ -24897,10 +24897,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>237.882129973464</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>356.2160603130088</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>304.8257678230423</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>139.1004690886136</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>64.19561720753158</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -25052,19 +25052,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>68.32273771316028</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25125,19 +25125,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25165,16 +25165,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>47.86825636317253</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>26.05029376371905</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
@@ -25216,13 +25216,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>17.70973133241671</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350704</v>
@@ -25289,16 +25289,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>73.73965521427627</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726393</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>277.6865331194431</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
@@ -25411,7 +25411,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>89.10835494435685</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25472,25 +25472,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>97.29219807573547</v>
       </c>
       <c r="D39" t="n">
-        <v>120.3844382490445</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -25566,10 +25566,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>7.978571048150471</v>
+        <v>7.728051983514206</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
         <v>74.58429473553585</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.81721828864393</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25687,7 +25687,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>205.0768500144794</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
         <v>118.2964226714636</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>91.60163614141368</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>137.5388670551136</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
-        <v>101.0407884212464</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>98.77605502823235</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>139.6536733288002</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -25876,16 +25876,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>138.0141418348188</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
@@ -25927,13 +25927,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,16 +25946,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>33.39377155799895</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
@@ -25964,7 +25964,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>172.2815588637153</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,10 +26040,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>7.978571048150513</v>
       </c>
       <c r="I46" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>74.58429473553585</v>
@@ -26079,13 +26079,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>281.3944484224782</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601547.5942367035</v>
+        <v>601547.5942367036</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601547.5942367035</v>
+        <v>601547.5942367034</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>601547.5942367036</v>
+        <v>601547.5942367037</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>601547.5942367035</v>
+        <v>601547.5942367036</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>601547.5942367035</v>
+        <v>601547.5942367037</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>601547.5942367037</v>
+        <v>601547.5942367036</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>601547.5942367037</v>
+        <v>601547.5942367035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>601547.5942367036</v>
+        <v>601547.5942367035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>601547.5942367037</v>
+        <v>601547.5942367036</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573255.7968646989</v>
+        <v>573255.7968646988</v>
       </c>
       <c r="C2" t="n">
-        <v>573255.796864699</v>
+        <v>573255.7968646991</v>
       </c>
       <c r="D2" t="n">
-        <v>573255.7968646991</v>
+        <v>573255.7968646992</v>
       </c>
       <c r="E2" t="n">
-        <v>325600.7626641425</v>
+        <v>325600.7626641427</v>
       </c>
       <c r="F2" t="n">
         <v>325600.7626641425</v>
@@ -26331,31 +26331,31 @@
         <v>325600.7626641425</v>
       </c>
       <c r="H2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="I2" t="n">
         <v>325600.7626641426</v>
       </c>
       <c r="J2" t="n">
+        <v>325600.7626641425</v>
+      </c>
+      <c r="K2" t="n">
+        <v>325600.7626641428</v>
+      </c>
+      <c r="L2" t="n">
+        <v>325600.7626641425</v>
+      </c>
+      <c r="M2" t="n">
+        <v>325600.7626641425</v>
+      </c>
+      <c r="N2" t="n">
         <v>325600.7626641426</v>
       </c>
-      <c r="K2" t="n">
-        <v>325600.7626641426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>325600.7626641424</v>
-      </c>
-      <c r="M2" t="n">
-        <v>325600.7626641424</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>325600.7626641428</v>
       </c>
-      <c r="O2" t="n">
-        <v>325600.7626641426</v>
-      </c>
       <c r="P2" t="n">
-        <v>325600.7626641425</v>
+        <v>325600.7626641428</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="C4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="D4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="E4" t="n">
         <v>50852.65536393008</v>
       </c>
       <c r="F4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="G4" t="n">
         <v>50852.65536393007</v>
       </c>
       <c r="H4" t="n">
+        <v>50852.65536393007</v>
+      </c>
+      <c r="I4" t="n">
         <v>50852.65536393008</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50852.65536393007</v>
       </c>
       <c r="J4" t="n">
         <v>50852.65536393008</v>
@@ -26447,19 +26447,19 @@
         <v>50852.65536393008</v>
       </c>
       <c r="L4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
       <c r="M4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
       <c r="N4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
       <c r="O4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
       <c r="P4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>36091.33751189046</v>
       </c>
       <c r="F5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="G5" t="n">
         <v>36091.33751189045</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36091.33751189047</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189047</v>
@@ -26505,13 +26505,13 @@
         <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109394.0613570037</v>
+        <v>109349.3975149516</v>
       </c>
       <c r="C6" t="n">
-        <v>109394.0613570038</v>
+        <v>109349.3975149519</v>
       </c>
       <c r="D6" t="n">
-        <v>109394.0613570039</v>
+        <v>109349.3975149521</v>
       </c>
       <c r="E6" t="n">
-        <v>-258396.3820291705</v>
+        <v>-267966.2394943205</v>
       </c>
       <c r="F6" t="n">
-        <v>238656.769788322</v>
+        <v>229086.9123231717</v>
       </c>
       <c r="G6" t="n">
-        <v>238656.769788322</v>
+        <v>229086.9123231717</v>
       </c>
       <c r="H6" t="n">
-        <v>238656.769788322</v>
+        <v>229086.9123231716</v>
       </c>
       <c r="I6" t="n">
-        <v>238656.769788322</v>
+        <v>229086.9123231719</v>
       </c>
       <c r="J6" t="n">
-        <v>238656.7697883221</v>
+        <v>229086.9123231718</v>
       </c>
       <c r="K6" t="n">
-        <v>238656.769788322</v>
+        <v>229086.912323172</v>
       </c>
       <c r="L6" t="n">
-        <v>238656.7697883219</v>
+        <v>229086.9123231717</v>
       </c>
       <c r="M6" t="n">
-        <v>131764.9104140825</v>
+        <v>122195.0529489324</v>
       </c>
       <c r="N6" t="n">
-        <v>238656.7697883223</v>
+        <v>229086.9123231718</v>
       </c>
       <c r="O6" t="n">
-        <v>238656.7697883221</v>
+        <v>229086.9123231721</v>
       </c>
       <c r="P6" t="n">
-        <v>238656.7697883219</v>
+        <v>229086.9123231721</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409237</v>
@@ -26801,16 +26801,16 @@
         <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="H4" t="n">
-        <v>428.9331606805647</v>
-      </c>
       <c r="I4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
         <v>428.9331606805647</v>
@@ -26822,16 +26822,16 @@
         <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>366.0267849604874</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>78.80210640405896</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.50448190323659</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518972</v>
+        <v>181.5401500614744</v>
       </c>
       <c r="M18" t="n">
-        <v>294.7534083983404</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
         <v>407.3068328282941</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
@@ -36208,13 +36208,13 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668274</v>
       </c>
       <c r="N21" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>120.619669464827</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36445,10 +36445,10 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>294.7534083983408</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867617</v>
@@ -36457,7 +36457,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>162.7270914936593</v>
@@ -36685,7 +36685,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>303.0842232378722</v>
+        <v>231.928132807181</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867617</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323692</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668274</v>
       </c>
       <c r="N33" t="n">
         <v>407.3068328282941</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>323.3818477386939</v>
+        <v>231.9281328071805</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867617</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811787</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
         <v>191.9262766422085</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>274.455783897519</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
         <v>407.3068328282941</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O41" t="n">
         <v>277.1250097811783</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>58.50448190323737</v>
+        <v>78.80210640405821</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119712</v>
+        <v>45.40379396119645</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405821</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
@@ -38113,10 +38113,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>56.17722358742247</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
